--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:17:44+00:00</t>
+    <t>2024-11-13T16:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -438,8 +434,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -496,16 +492,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -542,9 +528,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -552,9 +535,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -573,8 +553,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -632,8 +615,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -689,8 +672,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -744,9 +727,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -774,8 +754,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1001,7 +981,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -1014,6 +994,13 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1333,13 +1320,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1520,13 +1500,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1794,14 +1767,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1809,9 +1774,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2183,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -2191,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
@@ -2207,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
@@ -2215,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
@@ -2269,7 +2231,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
@@ -2305,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -2313,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -2803,10 +2765,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2814,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2840,16 +2802,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2899,7 +2861,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2908,10 +2870,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2919,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2945,16 +2907,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2980,32 +2942,32 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
@@ -3013,10 +2975,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -3024,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3050,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3109,7 +3071,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3118,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3129,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3155,16 +3117,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3175,29 +3137,29 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
       </c>
@@ -3214,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3223,10 +3185,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3234,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3260,16 +3222,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3319,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3328,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3339,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3365,16 +3327,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3424,7 +3386,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3433,10 +3395,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3444,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3470,16 +3432,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3529,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3538,10 +3500,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3549,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3575,13 +3537,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3632,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3652,14 +3614,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3678,16 +3640,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3725,19 +3687,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3746,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3757,14 +3719,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3783,19 +3745,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3844,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3853,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3864,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3890,17 +3852,15 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3949,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3958,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3969,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3995,17 +3955,15 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4054,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4063,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4074,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4100,13 +4058,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4145,19 +4103,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -4177,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4203,13 +4161,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4260,7 +4218,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4280,14 +4238,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4306,16 +4264,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4353,19 +4311,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4374,10 +4332,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -4385,14 +4343,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4411,19 +4369,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4472,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4481,10 +4439,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
@@ -4492,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4521,10 +4479,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4575,7 +4533,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4587,7 +4545,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -4595,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4621,16 +4579,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4680,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4689,10 +4647,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4700,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4726,13 +4684,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4783,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4803,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4829,13 +4787,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4886,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4895,10 +4853,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4906,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4932,13 +4890,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4989,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -5009,14 +4967,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5035,16 +4993,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5082,19 +5040,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5103,10 +5061,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -5114,14 +5072,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5140,19 +5098,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5201,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5210,10 +5168,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -5221,10 +5179,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5247,16 +5205,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5282,13 +5240,13 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>75</v>
@@ -5306,7 +5264,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -5315,10 +5273,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5326,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5352,16 +5310,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5411,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5420,10 +5378,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5431,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5457,13 +5415,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5514,7 +5472,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5523,10 +5481,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -5534,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5560,13 +5518,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5617,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5637,14 +5595,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5663,16 +5621,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5710,19 +5668,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5731,10 +5689,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -5742,14 +5700,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5768,19 +5726,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5829,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5838,10 +5796,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -5849,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5875,17 +5833,15 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5910,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5934,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5943,10 +5899,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5954,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5980,16 +5936,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6039,7 +5995,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6048,10 +6004,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6059,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6085,17 +6041,15 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6144,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6153,10 +6107,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6164,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6190,17 +6144,15 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6258,10 +6210,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6269,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6295,17 +6247,15 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6354,7 +6304,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6363,10 +6313,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6374,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6400,17 +6350,15 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6459,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6468,10 +6416,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6479,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6505,13 +6453,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6562,7 +6510,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6571,10 +6519,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -6582,10 +6530,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6608,13 +6556,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6665,7 +6613,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6685,14 +6633,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6711,16 +6659,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6758,19 +6706,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6779,10 +6727,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -6790,14 +6738,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6816,19 +6764,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6877,7 +6825,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6886,10 +6834,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -6897,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6923,17 +6871,15 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6982,7 +6928,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6991,10 +6937,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -7002,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7028,17 +6974,15 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7087,7 +7031,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7096,10 +7040,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7107,10 +7051,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7133,16 +7077,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7192,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7201,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7212,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7238,16 +7182,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7297,7 +7241,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7306,10 +7250,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7317,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7343,16 +7287,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7402,7 +7346,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7422,13 +7366,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7450,13 +7394,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7507,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7516,10 +7460,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
@@ -7527,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7553,13 +7497,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7610,7 +7554,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7630,14 +7574,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7656,16 +7600,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7703,19 +7647,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7724,10 +7668,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -7735,14 +7679,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7761,19 +7705,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7822,7 +7766,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7831,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -7842,10 +7786,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7871,10 +7815,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7925,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7937,7 +7881,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -7945,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7971,16 +7915,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8030,7 +7974,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8039,10 +7983,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -8050,10 +7994,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8076,16 +8020,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8135,7 +8079,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8155,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8181,13 +8125,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8238,7 +8182,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8247,10 +8191,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8258,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8284,13 +8228,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8341,7 +8285,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8361,14 +8305,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8387,16 +8331,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8434,19 +8378,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8455,10 +8399,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -8466,14 +8410,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8492,19 +8436,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8553,7 +8497,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8562,10 +8506,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -8573,10 +8517,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8599,16 +8543,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8634,13 +8578,13 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>75</v>
@@ -8658,7 +8602,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8667,10 +8611,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8678,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8704,16 +8648,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8763,7 +8707,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8772,10 +8716,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8783,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8809,13 +8753,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8866,7 +8810,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8875,10 +8819,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -8886,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8912,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8969,7 +8913,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8989,14 +8933,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9015,16 +8959,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9062,19 +9006,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9083,10 +9027,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -9094,14 +9038,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9120,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9181,7 +9125,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9190,10 +9134,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -9201,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9227,17 +9171,15 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9247,7 +9189,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9262,13 +9204,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9286,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9295,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9306,10 +9248,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9332,16 +9274,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9391,7 +9333,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9400,10 +9342,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9411,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9437,17 +9379,15 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9496,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9505,10 +9445,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9516,10 +9456,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9542,17 +9482,15 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9601,7 +9539,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9610,10 +9548,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9621,10 +9559,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9647,17 +9585,15 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9706,7 +9642,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9715,10 +9651,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9726,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9752,17 +9688,15 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9811,7 +9745,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9820,10 +9754,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9831,10 +9765,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9857,13 +9791,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9914,7 +9848,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9923,10 +9857,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -9934,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9960,13 +9894,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10017,7 +9951,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10037,14 +9971,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10063,16 +9997,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10110,19 +10044,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10131,10 +10065,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -10142,14 +10076,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10168,19 +10102,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10238,10 +10172,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
@@ -10249,10 +10183,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10275,17 +10209,15 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10334,7 +10266,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10343,10 +10275,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10354,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10380,17 +10312,15 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10439,7 +10369,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10448,10 +10378,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10459,10 +10389,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10485,16 +10415,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10544,7 +10474,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10553,10 +10483,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10564,10 +10494,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10590,16 +10520,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10649,7 +10579,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10658,10 +10588,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10669,10 +10599,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10695,16 +10625,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10754,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10774,10 +10704,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10800,19 +10730,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10861,7 +10791,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10870,21 +10800,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10910,13 +10840,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10966,7 +10896,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10978,18 +10908,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11088,13 +11018,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11183,21 +11113,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11220,13 +11150,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11277,7 +11207,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11294,17 +11224,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11323,16 +11253,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11370,19 +11300,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11391,21 +11321,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11431,13 +11361,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11487,7 +11417,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11496,21 +11426,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11533,16 +11463,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11592,7 +11522,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11601,21 +11531,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11638,16 +11568,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11697,7 +11627,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11706,21 +11636,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11743,16 +11673,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11802,7 +11732,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11811,21 +11741,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11848,16 +11778,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11883,13 +11813,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11907,7 +11837,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11916,21 +11846,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11953,16 +11883,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11988,13 +11918,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -12012,7 +11942,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12021,21 +11951,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12058,16 +11988,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12117,7 +12047,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12126,21 +12056,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12163,16 +12093,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12198,32 +12128,32 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z94" t="s" s="2">
+      <c r="AA94" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA94" t="s" s="2">
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12231,25 +12161,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12268,16 +12198,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12327,7 +12257,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12336,25 +12266,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12373,16 +12303,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12432,7 +12362,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12449,17 +12379,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12478,16 +12408,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12525,19 +12455,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12546,21 +12476,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12583,13 +12513,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12628,19 +12558,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12649,21 +12579,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12686,19 +12616,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12747,7 +12677,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12756,21 +12686,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12793,13 +12723,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12850,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12859,21 +12789,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12896,16 +12826,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12916,7 +12846,7 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>75</v>
@@ -12931,13 +12861,13 @@
         <v>75</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>75</v>
@@ -12955,7 +12885,7 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -12964,21 +12894,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13001,16 +12931,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13036,13 +12966,13 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>75</v>
@@ -13060,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13069,21 +12999,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13106,16 +13036,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13141,11 +13071,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13163,7 +13093,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13172,25 +13102,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13209,16 +13139,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13244,11 +13174,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13266,7 +13196,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13275,21 +13205,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13312,17 +13242,15 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13371,7 +13299,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13380,25 +13308,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13417,16 +13345,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13476,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13485,21 +13413,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13522,16 +13450,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13581,7 +13509,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13590,21 +13518,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13627,16 +13555,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13686,7 +13614,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13695,21 +13623,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13732,16 +13660,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13791,7 +13719,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13800,21 +13728,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13837,16 +13765,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13896,7 +13824,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13905,21 +13833,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13942,13 +13870,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13999,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -14016,17 +13944,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -14045,16 +13973,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14092,19 +14020,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14113,25 +14041,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14150,19 +14078,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14211,7 +14139,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14220,21 +14148,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14257,16 +14185,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14292,13 +14220,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14316,7 +14244,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14325,21 +14253,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14362,17 +14290,15 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14421,7 +14347,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14430,21 +14356,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14467,19 +14393,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14528,7 +14454,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14537,21 +14463,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14574,19 +14500,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14611,13 +14537,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14635,7 +14561,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14644,21 +14570,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14681,13 +14607,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14738,7 +14664,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14747,21 +14673,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14784,13 +14710,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14841,7 +14767,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14858,17 +14784,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14887,16 +14813,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14934,19 +14860,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14955,25 +14881,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14992,19 +14918,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -15053,7 +14979,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15062,21 +14988,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15099,17 +15025,15 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15158,7 +15082,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15167,21 +15091,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15204,13 +15128,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15261,7 +15185,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15278,17 +15202,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15307,16 +15231,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15354,19 +15278,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15375,21 +15299,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15412,19 +15336,17 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15437,7 +15359,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15449,13 +15371,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15473,7 +15395,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15482,21 +15404,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15519,19 +15441,17 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15544,7 +15464,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15556,14 +15476,14 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z126" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z126" t="s" s="2">
+      <c r="AA126" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
       </c>
@@ -15580,7 +15500,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15589,21 +15509,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15626,19 +15546,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15687,7 +15607,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15696,21 +15616,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK127" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15733,19 +15653,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15758,7 +15678,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15794,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15803,21 +15723,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15840,19 +15760,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15901,7 +15821,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15910,21 +15830,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15947,19 +15867,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -16008,7 +15928,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16017,21 +15937,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16054,19 +15974,17 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16079,7 +15997,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16115,7 +16033,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16124,21 +16042,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16161,17 +16079,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16220,7 +16138,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16229,21 +16147,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16266,16 +16184,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16301,11 +16219,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16323,7 +16241,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16332,21 +16250,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16369,16 +16287,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16428,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16437,21 +16355,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16474,13 +16392,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16531,7 +16449,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16548,17 +16466,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16577,16 +16495,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16624,19 +16542,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16645,25 +16563,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16682,19 +16600,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16743,7 +16661,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16752,21 +16670,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16789,17 +16707,15 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16848,7 +16764,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16857,21 +16773,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16894,16 +16810,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16929,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16953,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16962,21 +16878,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16999,17 +16915,15 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -17058,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17067,21 +16981,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17104,17 +17018,15 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17139,11 +17051,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17161,7 +17073,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17170,21 +17082,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17207,19 +17119,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17244,11 +17156,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17266,7 +17178,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17275,21 +17187,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17312,17 +17224,15 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17371,7 +17281,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17380,21 +17290,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17417,16 +17327,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17476,7 +17386,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17485,10 +17395,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:19:43+00:00</t>
+    <t>2024-11-13T16:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:25:20+00:00</t>
+    <t>2024-11-13T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:33:20+00:00</t>
+    <t>2024-11-13T21:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:45:33+00:00</t>
+    <t>2024-11-13T21:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:46:03+00:00</t>
+    <t>2024-11-13T21:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -434,8 +438,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -492,6 +496,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -528,6 +542,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -535,6 +552,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -553,11 +573,8 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -615,8 +632,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -672,8 +689,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -727,6 +744,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -754,8 +774,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -981,7 +1001,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -994,13 +1014,6 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1320,6 +1333,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1500,6 +1520,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1767,6 +1794,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1774,6 +1809,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2145,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
@@ -2153,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
@@ -2169,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27">
@@ -2177,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -2231,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -2267,7 +2305,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -2275,7 +2313,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -2765,10 +2803,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2776,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2802,16 +2840,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2861,7 +2899,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2870,10 +2908,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2881,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2907,16 +2945,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2942,13 +2980,13 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>75</v>
@@ -2966,7 +3004,7 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -2975,10 +3013,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -2986,10 +3024,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3012,16 +3050,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3071,7 +3109,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3080,10 +3118,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3091,10 +3129,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3117,16 +3155,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3137,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>75</v>
@@ -3152,13 +3190,13 @@
         <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
@@ -3176,7 +3214,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3185,10 +3223,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3196,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3222,16 +3260,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3281,7 +3319,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3290,10 +3328,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3301,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3327,16 +3365,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3386,7 +3424,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3395,10 +3433,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -3406,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3432,16 +3470,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3491,7 +3529,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3500,10 +3538,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3511,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3537,13 +3575,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3594,7 +3632,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3614,14 +3652,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3640,16 +3678,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3687,19 +3725,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3708,10 +3746,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -3719,14 +3757,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3745,19 +3783,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3806,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3815,10 +3853,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -3826,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3852,15 +3890,17 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3909,7 +3949,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3918,10 +3958,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3929,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3955,15 +3995,17 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4012,7 +4054,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4021,10 +4063,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4032,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4058,13 +4100,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4103,19 +4145,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4124,10 +4166,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -4135,10 +4177,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4161,13 +4203,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4218,7 +4260,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4238,14 +4280,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4264,16 +4306,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4311,19 +4353,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4332,10 +4374,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -4343,14 +4385,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4369,19 +4411,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4430,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4439,10 +4481,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -4450,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4479,10 +4521,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4533,7 +4575,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4545,7 +4587,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -4553,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4579,16 +4621,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4638,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4647,10 +4689,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4658,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4684,13 +4726,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4741,7 +4783,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4761,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4787,13 +4829,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4844,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4853,10 +4895,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -4864,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4890,13 +4932,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4947,7 +4989,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4967,14 +5009,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -4993,16 +5035,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5040,19 +5082,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5061,10 +5103,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -5072,14 +5114,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5098,19 +5140,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5159,7 +5201,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5168,10 +5210,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -5179,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5205,16 +5247,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5240,32 +5282,32 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5273,10 +5315,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5284,10 +5326,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5310,16 +5352,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5369,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5378,10 +5420,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5389,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5415,13 +5457,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5472,7 +5514,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5481,10 +5523,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -5492,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5518,13 +5560,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5575,7 +5617,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5595,14 +5637,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5621,16 +5663,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5668,19 +5710,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5689,10 +5731,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -5700,14 +5742,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5726,19 +5768,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5787,7 +5829,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5796,10 +5838,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -5807,10 +5849,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5833,15 +5875,17 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5866,13 +5910,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5890,7 +5934,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5899,10 +5943,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5910,10 +5954,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5936,16 +5980,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5995,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6004,10 +6048,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6015,10 +6059,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6041,15 +6085,17 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6098,7 +6144,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6107,10 +6153,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6118,10 +6164,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6144,15 +6190,17 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6201,7 +6249,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6210,10 +6258,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6221,10 +6269,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6247,15 +6295,17 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6304,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6313,10 +6363,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6324,10 +6374,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6350,15 +6400,17 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6407,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6416,10 +6468,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6427,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6453,13 +6505,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6510,7 +6562,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6519,10 +6571,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -6530,10 +6582,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6556,13 +6608,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6613,7 +6665,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6633,14 +6685,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6659,16 +6711,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6706,19 +6758,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6727,10 +6779,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -6738,14 +6790,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6764,19 +6816,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6825,7 +6877,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6834,10 +6886,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
@@ -6845,10 +6897,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6871,15 +6923,17 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6928,7 +6982,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6937,10 +6991,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -6948,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6974,15 +7028,17 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7031,7 +7087,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7040,10 +7096,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7051,10 +7107,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7077,16 +7133,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7136,7 +7192,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7145,10 +7201,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7156,10 +7212,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7182,16 +7238,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7241,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7250,10 +7306,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7261,10 +7317,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7287,16 +7343,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7346,7 +7402,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7366,13 +7422,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7394,13 +7450,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7451,7 +7507,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7460,10 +7516,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50">
@@ -7471,10 +7527,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7497,13 +7553,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7554,7 +7610,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7574,14 +7630,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7600,16 +7656,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7647,19 +7703,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7668,10 +7724,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
@@ -7679,14 +7735,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7705,19 +7761,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7766,7 +7822,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7775,10 +7831,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -7786,10 +7842,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7815,10 +7871,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7869,7 +7925,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7881,7 +7937,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -7889,10 +7945,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7915,16 +7971,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -7974,7 +8030,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7983,10 +8039,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -7994,10 +8050,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8020,16 +8076,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8079,7 +8135,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8099,10 +8155,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8125,13 +8181,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8182,7 +8238,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8191,10 +8247,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
@@ -8202,10 +8258,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8228,13 +8284,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8285,7 +8341,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8305,14 +8361,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8331,16 +8387,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8378,19 +8434,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8399,10 +8455,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -8410,14 +8466,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8436,19 +8492,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8497,7 +8553,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8506,10 +8562,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -8517,10 +8573,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8543,16 +8599,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8578,32 +8634,32 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8611,10 +8667,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8622,10 +8678,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8648,16 +8704,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8707,7 +8763,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8716,10 +8772,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8727,10 +8783,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8753,13 +8809,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8810,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8819,10 +8875,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -8830,10 +8886,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8856,13 +8912,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8913,7 +8969,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8933,14 +8989,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -8959,16 +9015,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9006,19 +9062,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9027,10 +9083,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -9038,14 +9094,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9064,19 +9120,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9125,7 +9181,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9134,10 +9190,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -9145,10 +9201,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9171,15 +9227,17 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9189,7 +9247,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9204,13 +9262,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9228,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9237,10 +9295,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9248,10 +9306,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9274,16 +9332,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9333,7 +9391,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9342,10 +9400,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9353,10 +9411,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9379,15 +9437,17 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9436,7 +9496,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9445,10 +9505,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9456,10 +9516,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9482,15 +9542,17 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9539,7 +9601,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9548,10 +9610,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9559,10 +9621,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9585,15 +9647,17 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9642,7 +9706,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9651,10 +9715,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9662,10 +9726,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9688,15 +9752,17 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9745,7 +9811,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9754,10 +9820,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9765,10 +9831,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9791,13 +9857,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9848,7 +9914,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9857,10 +9923,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -9868,10 +9934,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9894,13 +9960,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9951,7 +10017,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9971,14 +10037,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -9997,16 +10063,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10044,19 +10110,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10065,10 +10131,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -10076,14 +10142,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10102,19 +10168,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10163,7 +10229,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10172,10 +10238,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76">
@@ -10183,10 +10249,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10209,15 +10275,17 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10266,7 +10334,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10275,10 +10343,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10286,10 +10354,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10312,15 +10380,17 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10369,7 +10439,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10378,10 +10448,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10389,10 +10459,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10415,16 +10485,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10474,7 +10544,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10483,10 +10553,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10494,10 +10564,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10520,16 +10590,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10579,7 +10649,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10588,10 +10658,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10599,10 +10669,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10625,16 +10695,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10684,7 +10754,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10704,10 +10774,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10730,19 +10800,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10791,7 +10861,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10800,21 +10870,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10840,13 +10910,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10896,7 +10966,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10908,18 +10978,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11018,13 +11088,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11113,21 +11183,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11150,13 +11220,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11207,7 +11277,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11224,17 +11294,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11253,16 +11323,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11300,19 +11370,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11321,21 +11391,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11361,13 +11431,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11417,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11426,21 +11496,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11463,16 +11533,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11522,7 +11592,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11531,21 +11601,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11568,16 +11638,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11627,7 +11697,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11636,21 +11706,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11673,16 +11743,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11732,7 +11802,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11741,21 +11811,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11778,16 +11848,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11813,13 +11883,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11837,7 +11907,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11846,21 +11916,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11883,16 +11953,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11918,13 +11988,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -11942,7 +12012,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11951,21 +12021,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11988,16 +12058,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12047,7 +12117,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12056,21 +12126,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12093,16 +12163,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12128,13 +12198,13 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>75</v>
@@ -12152,7 +12222,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12161,25 +12231,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12198,16 +12268,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12257,7 +12327,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12266,25 +12336,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12303,16 +12373,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12362,7 +12432,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12379,17 +12449,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12408,16 +12478,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12455,19 +12525,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12476,21 +12546,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12513,13 +12583,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12558,19 +12628,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12579,21 +12649,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12616,19 +12686,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12677,7 +12747,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12686,21 +12756,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12723,13 +12793,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12780,7 +12850,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12789,21 +12859,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12826,16 +12896,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12846,47 +12916,47 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="U101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
       </c>
@@ -12894,21 +12964,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12931,16 +13001,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12966,32 +13036,32 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG102" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AA102" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
@@ -12999,21 +13069,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13036,16 +13106,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13071,11 +13141,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13093,7 +13163,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13102,25 +13172,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13139,16 +13209,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13174,11 +13244,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13196,7 +13266,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13205,21 +13275,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13242,15 +13312,17 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13299,7 +13371,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13308,25 +13380,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13345,16 +13417,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13404,7 +13476,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13413,21 +13485,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13450,16 +13522,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13509,7 +13581,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13518,21 +13590,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13555,16 +13627,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13614,7 +13686,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13623,21 +13695,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13660,16 +13732,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13719,7 +13791,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13728,21 +13800,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13765,16 +13837,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13824,7 +13896,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13833,21 +13905,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13870,13 +13942,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13927,7 +13999,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -13944,17 +14016,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -13973,16 +14045,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14020,19 +14092,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14041,25 +14113,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14078,19 +14150,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14139,7 +14211,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14148,21 +14220,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14185,16 +14257,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14220,13 +14292,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14244,7 +14316,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14253,21 +14325,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14290,15 +14362,17 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14347,7 +14421,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14356,21 +14430,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14393,19 +14467,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14454,7 +14528,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14463,21 +14537,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14500,19 +14574,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14537,13 +14611,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14561,7 +14635,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14570,21 +14644,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14607,13 +14681,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14664,7 +14738,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14673,21 +14747,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14710,13 +14784,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14767,7 +14841,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14784,17 +14858,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14813,16 +14887,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14860,19 +14934,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14881,25 +14955,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14918,19 +14992,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -14979,7 +15053,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -14988,21 +15062,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15025,15 +15099,17 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15082,7 +15158,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15091,21 +15167,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>95</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15128,13 +15204,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15185,7 +15261,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15202,17 +15278,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15231,16 +15307,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15278,19 +15354,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15299,21 +15375,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15336,17 +15412,19 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P125" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15359,7 +15437,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15371,13 +15449,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15395,7 +15473,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15404,21 +15482,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15441,17 +15519,19 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P126" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15464,7 +15544,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15476,13 +15556,13 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
@@ -15500,7 +15580,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15509,21 +15589,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15546,19 +15626,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15607,7 +15687,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15616,21 +15696,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15653,19 +15733,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15678,7 +15758,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15714,7 +15794,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15723,21 +15803,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15760,19 +15840,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15821,7 +15901,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15830,21 +15910,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15867,19 +15947,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -15928,7 +16008,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -15937,21 +16017,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -15974,17 +16054,19 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P131" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -15997,7 +16079,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16033,7 +16115,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16042,21 +16124,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16079,17 +16161,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16138,7 +16220,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16147,21 +16229,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16184,16 +16266,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16219,11 +16301,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16241,7 +16323,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16250,21 +16332,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16287,16 +16369,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16346,7 +16428,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16355,21 +16437,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16392,13 +16474,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16449,7 +16531,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16466,17 +16548,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16495,16 +16577,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16542,19 +16624,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16563,25 +16645,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16600,19 +16682,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16661,7 +16743,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16670,21 +16752,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16707,15 +16789,17 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16764,7 +16848,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16773,21 +16857,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16810,16 +16894,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16845,13 +16929,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16869,7 +16953,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16878,21 +16962,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16915,15 +16999,17 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -16972,7 +17058,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -16981,21 +17067,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>95</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17018,15 +17104,17 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17051,11 +17139,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17073,7 +17161,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17082,21 +17170,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17119,19 +17207,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17156,11 +17244,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17178,7 +17266,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17187,21 +17275,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17224,15 +17312,17 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17281,7 +17371,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17290,21 +17380,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17327,16 +17417,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17386,7 +17476,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17395,10 +17485,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:48:00+00:00</t>
+    <t>2024-11-14T09:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -438,8 +434,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -496,16 +492,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -542,9 +528,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -552,9 +535,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -573,8 +553,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -632,8 +615,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -689,8 +672,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -744,9 +727,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -774,8 +754,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1001,7 +981,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -1014,6 +994,13 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1333,13 +1320,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1520,13 +1500,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1794,14 +1767,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1809,9 +1774,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2183,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -2191,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
@@ -2207,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
@@ -2215,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
@@ -2269,7 +2231,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
@@ -2305,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -2313,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -2803,10 +2765,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2814,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2840,16 +2802,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2899,7 +2861,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2908,10 +2870,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2919,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2945,16 +2907,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2980,32 +2942,32 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
@@ -3013,10 +2975,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -3024,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3050,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3109,7 +3071,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3118,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3129,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3155,16 +3117,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3175,29 +3137,29 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
       </c>
@@ -3214,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3223,10 +3185,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3234,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3260,16 +3222,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3319,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3328,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3339,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3365,16 +3327,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3424,7 +3386,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3433,10 +3395,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3444,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3470,16 +3432,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3529,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3538,10 +3500,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3549,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3575,13 +3537,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3632,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3652,14 +3614,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3678,16 +3640,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3725,19 +3687,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3746,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3757,14 +3719,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3783,19 +3745,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3844,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3853,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3864,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3890,17 +3852,15 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3949,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3958,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3969,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3995,17 +3955,15 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4054,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4063,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4074,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4100,13 +4058,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4145,19 +4103,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -4177,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4203,13 +4161,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4260,7 +4218,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4280,14 +4238,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4306,16 +4264,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4353,19 +4311,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4374,10 +4332,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -4385,14 +4343,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4411,19 +4369,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4472,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4481,10 +4439,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
@@ -4492,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4521,10 +4479,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4575,7 +4533,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4587,7 +4545,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -4595,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4621,16 +4579,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4680,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4689,10 +4647,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4700,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4726,13 +4684,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4783,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4803,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4829,13 +4787,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4886,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4895,10 +4853,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4906,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4932,13 +4890,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4989,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -5009,14 +4967,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5035,16 +4993,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5082,19 +5040,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5103,10 +5061,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -5114,14 +5072,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5140,19 +5098,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5201,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5210,10 +5168,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -5221,10 +5179,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5247,16 +5205,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5282,13 +5240,13 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>75</v>
@@ -5306,7 +5264,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -5315,10 +5273,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5326,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5352,16 +5310,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5411,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5420,10 +5378,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5431,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5457,13 +5415,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5514,7 +5472,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5523,10 +5481,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -5534,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5560,13 +5518,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5617,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5637,14 +5595,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5663,16 +5621,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5710,19 +5668,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5731,10 +5689,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -5742,14 +5700,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5768,19 +5726,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5829,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5838,10 +5796,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -5849,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5875,17 +5833,15 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5910,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5934,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5943,10 +5899,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5954,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5980,16 +5936,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6039,7 +5995,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6048,10 +6004,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6059,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6085,17 +6041,15 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6144,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6153,10 +6107,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6164,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6190,17 +6144,15 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6258,10 +6210,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6269,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6295,17 +6247,15 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6354,7 +6304,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6363,10 +6313,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6374,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6400,17 +6350,15 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6459,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6468,10 +6416,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6479,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6505,13 +6453,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6562,7 +6510,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6571,10 +6519,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -6582,10 +6530,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6608,13 +6556,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6665,7 +6613,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6685,14 +6633,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6711,16 +6659,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6758,19 +6706,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6779,10 +6727,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -6790,14 +6738,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6816,19 +6764,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6877,7 +6825,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6886,10 +6834,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -6897,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6923,17 +6871,15 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6982,7 +6928,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6991,10 +6937,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -7002,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7028,17 +6974,15 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7087,7 +7031,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7096,10 +7040,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7107,10 +7051,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7133,16 +7077,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7192,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7201,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7212,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7238,16 +7182,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7297,7 +7241,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7306,10 +7250,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7317,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7343,16 +7287,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7402,7 +7346,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7422,13 +7366,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7450,13 +7394,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7507,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7516,10 +7460,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
@@ -7527,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7553,13 +7497,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7610,7 +7554,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7630,14 +7574,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7656,16 +7600,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7703,19 +7647,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7724,10 +7668,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -7735,14 +7679,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7761,19 +7705,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7822,7 +7766,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7831,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -7842,10 +7786,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7871,10 +7815,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7925,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7937,7 +7881,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -7945,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7971,16 +7915,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8030,7 +7974,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8039,10 +7983,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -8050,10 +7994,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8076,16 +8020,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8135,7 +8079,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8155,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8181,13 +8125,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8238,7 +8182,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8247,10 +8191,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8258,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8284,13 +8228,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8341,7 +8285,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8361,14 +8305,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8387,16 +8331,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8434,19 +8378,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8455,10 +8399,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -8466,14 +8410,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8492,19 +8436,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8553,7 +8497,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8562,10 +8506,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -8573,10 +8517,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8599,16 +8543,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8634,13 +8578,13 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>75</v>
@@ -8658,7 +8602,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8667,10 +8611,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8678,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8704,16 +8648,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8763,7 +8707,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8772,10 +8716,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8783,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8809,13 +8753,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8866,7 +8810,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8875,10 +8819,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -8886,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8912,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8969,7 +8913,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8989,14 +8933,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9015,16 +8959,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9062,19 +9006,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9083,10 +9027,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -9094,14 +9038,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9120,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9181,7 +9125,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9190,10 +9134,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -9201,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9227,17 +9171,15 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9247,7 +9189,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9262,13 +9204,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9286,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9295,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9306,10 +9248,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9332,16 +9274,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9391,7 +9333,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9400,10 +9342,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9411,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9437,17 +9379,15 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9496,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9505,10 +9445,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9516,10 +9456,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9542,17 +9482,15 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9601,7 +9539,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9610,10 +9548,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9621,10 +9559,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9647,17 +9585,15 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9706,7 +9642,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9715,10 +9651,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9726,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9752,17 +9688,15 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9811,7 +9745,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9820,10 +9754,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9831,10 +9765,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9857,13 +9791,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9914,7 +9848,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9923,10 +9857,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -9934,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9960,13 +9894,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10017,7 +9951,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10037,14 +9971,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10063,16 +9997,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10110,19 +10044,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10131,10 +10065,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -10142,14 +10076,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10168,19 +10102,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10238,10 +10172,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
@@ -10249,10 +10183,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10275,17 +10209,15 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10334,7 +10266,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10343,10 +10275,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10354,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10380,17 +10312,15 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10439,7 +10369,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10448,10 +10378,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10459,10 +10389,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10485,16 +10415,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10544,7 +10474,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10553,10 +10483,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10564,10 +10494,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10590,16 +10520,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10649,7 +10579,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10658,10 +10588,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10669,10 +10599,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10695,16 +10625,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10754,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10774,10 +10704,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10800,19 +10730,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10861,7 +10791,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10870,21 +10800,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10910,13 +10840,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10966,7 +10896,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10978,18 +10908,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11088,13 +11018,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11183,21 +11113,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11220,13 +11150,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11277,7 +11207,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11294,17 +11224,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11323,16 +11253,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11370,19 +11300,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11391,21 +11321,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11431,13 +11361,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11487,7 +11417,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11496,21 +11426,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11533,16 +11463,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11592,7 +11522,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11601,21 +11531,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11638,16 +11568,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11697,7 +11627,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11706,21 +11636,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11743,16 +11673,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11802,7 +11732,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11811,21 +11741,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11848,16 +11778,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11883,13 +11813,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11907,7 +11837,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11916,21 +11846,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11953,16 +11883,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11988,13 +11918,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -12012,7 +11942,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12021,21 +11951,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12058,16 +11988,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12117,7 +12047,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12126,21 +12056,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12163,16 +12093,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12198,32 +12128,32 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z94" t="s" s="2">
+      <c r="AA94" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA94" t="s" s="2">
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12231,25 +12161,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12268,16 +12198,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12327,7 +12257,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12336,25 +12266,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12373,16 +12303,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12432,7 +12362,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12449,17 +12379,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12478,16 +12408,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12525,19 +12455,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12546,21 +12476,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12583,13 +12513,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12628,19 +12558,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12649,21 +12579,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12686,19 +12616,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12747,7 +12677,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12756,21 +12686,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12793,13 +12723,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12850,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12859,21 +12789,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12896,16 +12826,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12916,7 +12846,7 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>75</v>
@@ -12931,13 +12861,13 @@
         <v>75</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>75</v>
@@ -12955,7 +12885,7 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -12964,21 +12894,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13001,16 +12931,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13036,13 +12966,13 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>75</v>
@@ -13060,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13069,21 +12999,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13106,16 +13036,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13141,11 +13071,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13163,7 +13093,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13172,25 +13102,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13209,16 +13139,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13244,11 +13174,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13266,7 +13196,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13275,21 +13205,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13312,17 +13242,15 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13371,7 +13299,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13380,25 +13308,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13417,16 +13345,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13476,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13485,21 +13413,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13522,16 +13450,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13581,7 +13509,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13590,21 +13518,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13627,16 +13555,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13686,7 +13614,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13695,21 +13623,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13732,16 +13660,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13791,7 +13719,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13800,21 +13728,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13837,16 +13765,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13896,7 +13824,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13905,21 +13833,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13942,13 +13870,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13999,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -14016,17 +13944,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -14045,16 +13973,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14092,19 +14020,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14113,25 +14041,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14150,19 +14078,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14211,7 +14139,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14220,21 +14148,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14257,16 +14185,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14292,13 +14220,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14316,7 +14244,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14325,21 +14253,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14362,17 +14290,15 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14421,7 +14347,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14430,21 +14356,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14467,19 +14393,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14528,7 +14454,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14537,21 +14463,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14574,19 +14500,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14611,13 +14537,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14635,7 +14561,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14644,21 +14570,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14681,13 +14607,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14738,7 +14664,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14747,21 +14673,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14784,13 +14710,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14841,7 +14767,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14858,17 +14784,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14887,16 +14813,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14934,19 +14860,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14955,25 +14881,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14992,19 +14918,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -15053,7 +14979,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15062,21 +14988,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15099,17 +15025,15 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15158,7 +15082,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15167,21 +15091,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15204,13 +15128,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15261,7 +15185,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15278,17 +15202,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15307,16 +15231,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15354,19 +15278,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15375,21 +15299,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15412,19 +15336,17 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15437,7 +15359,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15449,13 +15371,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15473,7 +15395,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15482,21 +15404,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15519,19 +15441,17 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15544,7 +15464,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15556,14 +15476,14 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z126" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z126" t="s" s="2">
+      <c r="AA126" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
       </c>
@@ -15580,7 +15500,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15589,21 +15509,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15626,19 +15546,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15687,7 +15607,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15696,21 +15616,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK127" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15733,19 +15653,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15758,7 +15678,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15794,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15803,21 +15723,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15840,19 +15760,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15901,7 +15821,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15910,21 +15830,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15947,19 +15867,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -16008,7 +15928,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16017,21 +15937,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16054,19 +15974,17 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16079,7 +15997,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16115,7 +16033,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16124,21 +16042,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16161,17 +16079,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16220,7 +16138,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16229,21 +16147,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16266,16 +16184,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16301,11 +16219,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16323,7 +16241,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16332,21 +16250,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16369,16 +16287,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16428,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16437,21 +16355,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16474,13 +16392,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16531,7 +16449,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16548,17 +16466,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16577,16 +16495,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16624,19 +16542,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16645,25 +16563,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16682,19 +16600,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16743,7 +16661,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16752,21 +16670,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16789,17 +16707,15 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16848,7 +16764,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16857,21 +16773,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16894,16 +16810,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16929,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16953,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16962,21 +16878,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16999,17 +16915,15 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -17058,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17067,21 +16981,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17104,17 +17018,15 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17139,11 +17051,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17161,7 +17073,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17170,21 +17082,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17207,19 +17119,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17244,11 +17156,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17266,7 +17178,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17275,21 +17187,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17312,17 +17224,15 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17371,7 +17281,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17380,21 +17290,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17417,16 +17327,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17476,7 +17386,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17485,10 +17395,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:46:04+00:00</t>
+    <t>2024-11-14T09:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:47:37+00:00</t>
+    <t>2024-11-14T09:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:50:14+00:00</t>
+    <t>2024-11-14T09:51:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:51:07+00:00</t>
+    <t>2024-11-14T09:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -434,8 +438,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -492,6 +496,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -528,6 +542,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -535,6 +552,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -553,11 +573,8 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -615,8 +632,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -672,8 +689,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -727,6 +744,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -754,8 +774,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -981,7 +1001,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -994,13 +1014,6 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1320,6 +1333,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1500,6 +1520,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1767,6 +1794,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1774,6 +1809,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2145,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
@@ -2153,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
@@ -2169,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27">
@@ -2177,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -2231,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -2267,7 +2305,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -2275,7 +2313,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -2765,10 +2803,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2776,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2802,16 +2840,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2861,7 +2899,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2870,10 +2908,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2881,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2907,16 +2945,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2942,13 +2980,13 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>75</v>
@@ -2966,7 +3004,7 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -2975,10 +3013,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -2986,10 +3024,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3012,16 +3050,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3071,7 +3109,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3080,10 +3118,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3091,10 +3129,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3117,16 +3155,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3137,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>75</v>
@@ -3152,13 +3190,13 @@
         <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
@@ -3176,7 +3214,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3185,10 +3223,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3196,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3222,16 +3260,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3281,7 +3319,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3290,10 +3328,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3301,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3327,16 +3365,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3386,7 +3424,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3395,10 +3433,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -3406,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3432,16 +3470,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3491,7 +3529,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3500,10 +3538,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3511,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3537,13 +3575,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3594,7 +3632,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3614,14 +3652,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3640,16 +3678,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3687,19 +3725,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3708,10 +3746,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -3719,14 +3757,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3745,19 +3783,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3806,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3815,10 +3853,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -3826,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3852,15 +3890,17 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3909,7 +3949,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3918,10 +3958,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3929,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3955,15 +3995,17 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4012,7 +4054,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4021,10 +4063,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4032,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4058,13 +4100,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4103,19 +4145,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4124,10 +4166,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -4135,10 +4177,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4161,13 +4203,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4218,7 +4260,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4238,14 +4280,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4264,16 +4306,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4311,19 +4353,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4332,10 +4374,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -4343,14 +4385,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4369,19 +4411,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4430,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4439,10 +4481,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -4450,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4479,10 +4521,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4533,7 +4575,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4545,7 +4587,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -4553,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4579,16 +4621,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4638,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4647,10 +4689,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4658,10 +4700,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4684,13 +4726,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4741,7 +4783,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4761,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4787,13 +4829,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4844,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4853,10 +4895,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -4864,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4890,13 +4932,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4947,7 +4989,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4967,14 +5009,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -4993,16 +5035,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5040,19 +5082,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5061,10 +5103,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -5072,14 +5114,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5098,19 +5140,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5159,7 +5201,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5168,10 +5210,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -5179,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5205,16 +5247,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5240,32 +5282,32 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5273,10 +5315,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5284,10 +5326,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5310,16 +5352,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5369,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5378,10 +5420,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5389,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5415,13 +5457,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5472,7 +5514,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5481,10 +5523,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -5492,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5518,13 +5560,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5575,7 +5617,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5595,14 +5637,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5621,16 +5663,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5668,19 +5710,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5689,10 +5731,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -5700,14 +5742,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5726,19 +5768,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5787,7 +5829,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5796,10 +5838,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -5807,10 +5849,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5833,15 +5875,17 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5866,13 +5910,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5890,7 +5934,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5899,10 +5943,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5910,10 +5954,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5936,16 +5980,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5995,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6004,10 +6048,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6015,10 +6059,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6041,15 +6085,17 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6098,7 +6144,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6107,10 +6153,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6118,10 +6164,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6144,15 +6190,17 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6201,7 +6249,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6210,10 +6258,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6221,10 +6269,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6247,15 +6295,17 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6304,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6313,10 +6363,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6324,10 +6374,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6350,15 +6400,17 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6407,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6416,10 +6468,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6427,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6453,13 +6505,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6510,7 +6562,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6519,10 +6571,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -6530,10 +6582,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6556,13 +6608,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6613,7 +6665,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6633,14 +6685,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6659,16 +6711,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6706,19 +6758,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6727,10 +6779,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -6738,14 +6790,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6764,19 +6816,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6825,7 +6877,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6834,10 +6886,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
@@ -6845,10 +6897,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6871,15 +6923,17 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6928,7 +6982,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6937,10 +6991,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -6948,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6974,15 +7028,17 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7031,7 +7087,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7040,10 +7096,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7051,10 +7107,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7077,16 +7133,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7136,7 +7192,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7145,10 +7201,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7156,10 +7212,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7182,16 +7238,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7241,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7250,10 +7306,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7261,10 +7317,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7287,16 +7343,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7346,7 +7402,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7366,13 +7422,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7394,13 +7450,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7451,7 +7507,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7460,10 +7516,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50">
@@ -7471,10 +7527,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7497,13 +7553,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7554,7 +7610,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7574,14 +7630,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7600,16 +7656,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7647,19 +7703,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7668,10 +7724,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
@@ -7679,14 +7735,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7705,19 +7761,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7766,7 +7822,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7775,10 +7831,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -7786,10 +7842,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7815,10 +7871,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7869,7 +7925,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7881,7 +7937,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -7889,10 +7945,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7915,16 +7971,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -7974,7 +8030,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7983,10 +8039,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -7994,10 +8050,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8020,16 +8076,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8079,7 +8135,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8099,10 +8155,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8125,13 +8181,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8182,7 +8238,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8191,10 +8247,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
@@ -8202,10 +8258,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8228,13 +8284,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8285,7 +8341,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8305,14 +8361,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8331,16 +8387,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8378,19 +8434,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8399,10 +8455,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -8410,14 +8466,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8436,19 +8492,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8497,7 +8553,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8506,10 +8562,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -8517,10 +8573,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8543,16 +8599,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8578,32 +8634,32 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8611,10 +8667,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8622,10 +8678,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8648,16 +8704,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8707,7 +8763,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8716,10 +8772,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8727,10 +8783,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8753,13 +8809,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8810,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8819,10 +8875,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -8830,10 +8886,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8856,13 +8912,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8913,7 +8969,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8933,14 +8989,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -8959,16 +9015,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9006,19 +9062,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9027,10 +9083,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -9038,14 +9094,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9064,19 +9120,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9125,7 +9181,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9134,10 +9190,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -9145,10 +9201,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9171,15 +9227,17 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9189,7 +9247,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9204,13 +9262,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9228,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9237,10 +9295,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9248,10 +9306,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9274,16 +9332,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9333,7 +9391,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9342,10 +9400,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9353,10 +9411,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9379,15 +9437,17 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9436,7 +9496,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9445,10 +9505,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9456,10 +9516,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9482,15 +9542,17 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9539,7 +9601,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9548,10 +9610,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9559,10 +9621,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9585,15 +9647,17 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9642,7 +9706,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9651,10 +9715,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9662,10 +9726,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9688,15 +9752,17 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9745,7 +9811,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9754,10 +9820,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9765,10 +9831,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9791,13 +9857,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9848,7 +9914,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9857,10 +9923,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -9868,10 +9934,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9894,13 +9960,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9951,7 +10017,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9971,14 +10037,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -9997,16 +10063,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10044,19 +10110,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10065,10 +10131,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -10076,14 +10142,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10102,19 +10168,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10163,7 +10229,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10172,10 +10238,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76">
@@ -10183,10 +10249,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10209,15 +10275,17 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10266,7 +10334,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10275,10 +10343,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10286,10 +10354,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10312,15 +10380,17 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10369,7 +10439,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10378,10 +10448,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10389,10 +10459,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10415,16 +10485,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10474,7 +10544,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10483,10 +10553,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10494,10 +10564,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10520,16 +10590,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10579,7 +10649,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10588,10 +10658,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10599,10 +10669,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10625,16 +10695,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10684,7 +10754,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10704,10 +10774,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10730,19 +10800,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10791,7 +10861,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10800,21 +10870,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10840,13 +10910,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10896,7 +10966,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10908,18 +10978,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11018,13 +11088,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11113,21 +11183,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11150,13 +11220,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11207,7 +11277,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11224,17 +11294,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11253,16 +11323,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11300,19 +11370,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11321,21 +11391,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11361,13 +11431,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11417,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11426,21 +11496,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11463,16 +11533,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11522,7 +11592,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11531,21 +11601,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11568,16 +11638,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11627,7 +11697,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11636,21 +11706,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11673,16 +11743,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11732,7 +11802,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11741,21 +11811,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11778,16 +11848,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11813,13 +11883,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11837,7 +11907,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11846,21 +11916,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11883,16 +11953,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11918,13 +11988,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -11942,7 +12012,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11951,21 +12021,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11988,16 +12058,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12047,7 +12117,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12056,21 +12126,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12093,16 +12163,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12128,13 +12198,13 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>75</v>
@@ -12152,7 +12222,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12161,25 +12231,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12198,16 +12268,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12257,7 +12327,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12266,25 +12336,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12303,16 +12373,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12362,7 +12432,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12379,17 +12449,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12408,16 +12478,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12455,19 +12525,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12476,21 +12546,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12513,13 +12583,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12558,19 +12628,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12579,21 +12649,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12616,19 +12686,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12677,7 +12747,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12686,21 +12756,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12723,13 +12793,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12780,7 +12850,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12789,21 +12859,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12826,16 +12896,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12846,47 +12916,47 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="U101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
       </c>
@@ -12894,21 +12964,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12931,16 +13001,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12966,32 +13036,32 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG102" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AA102" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
@@ -12999,21 +13069,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13036,16 +13106,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13071,11 +13141,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13093,7 +13163,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13102,25 +13172,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13139,16 +13209,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13174,11 +13244,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13196,7 +13266,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13205,21 +13275,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13242,15 +13312,17 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13299,7 +13371,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13308,25 +13380,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13345,16 +13417,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13404,7 +13476,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13413,21 +13485,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13450,16 +13522,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13509,7 +13581,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13518,21 +13590,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13555,16 +13627,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13614,7 +13686,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13623,21 +13695,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13660,16 +13732,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13719,7 +13791,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13728,21 +13800,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13765,16 +13837,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13824,7 +13896,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13833,21 +13905,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13870,13 +13942,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13927,7 +13999,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -13944,17 +14016,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -13973,16 +14045,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14020,19 +14092,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14041,25 +14113,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14078,19 +14150,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14139,7 +14211,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14148,21 +14220,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14185,16 +14257,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14220,13 +14292,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14244,7 +14316,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14253,21 +14325,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14290,15 +14362,17 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14347,7 +14421,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14356,21 +14430,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14393,19 +14467,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14454,7 +14528,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14463,21 +14537,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14500,19 +14574,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14537,13 +14611,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14561,7 +14635,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14570,21 +14644,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14607,13 +14681,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14664,7 +14738,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14673,21 +14747,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14710,13 +14784,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14767,7 +14841,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14784,17 +14858,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14813,16 +14887,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14860,19 +14934,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14881,25 +14955,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14918,19 +14992,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -14979,7 +15053,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -14988,21 +15062,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15025,15 +15099,17 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15082,7 +15158,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15091,21 +15167,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>95</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15128,13 +15204,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15185,7 +15261,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15202,17 +15278,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15231,16 +15307,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15278,19 +15354,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15299,21 +15375,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15336,17 +15412,19 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P125" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15359,7 +15437,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15371,13 +15449,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15395,7 +15473,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15404,21 +15482,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15441,17 +15519,19 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P126" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15464,7 +15544,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15476,13 +15556,13 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
@@ -15500,7 +15580,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15509,21 +15589,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15546,19 +15626,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15607,7 +15687,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15616,21 +15696,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15653,19 +15733,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15678,7 +15758,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15714,7 +15794,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15723,21 +15803,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15760,19 +15840,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15821,7 +15901,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15830,21 +15910,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15867,19 +15947,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -15928,7 +16008,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -15937,21 +16017,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -15974,17 +16054,19 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P131" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -15997,7 +16079,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16033,7 +16115,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16042,21 +16124,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16079,17 +16161,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16138,7 +16220,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16147,21 +16229,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16184,16 +16266,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16219,11 +16301,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16241,7 +16323,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16250,21 +16332,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16287,16 +16369,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16346,7 +16428,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16355,21 +16437,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16392,13 +16474,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16449,7 +16531,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16466,17 +16548,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16495,16 +16577,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16542,19 +16624,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16563,25 +16645,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16600,19 +16682,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16661,7 +16743,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16670,21 +16752,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16707,15 +16789,17 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16764,7 +16848,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16773,21 +16857,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16810,16 +16894,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16845,13 +16929,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16869,7 +16953,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16878,21 +16962,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16915,15 +16999,17 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -16972,7 +17058,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -16981,21 +17067,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>95</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17018,15 +17104,17 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17051,11 +17139,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17073,7 +17161,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17082,21 +17170,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17119,19 +17207,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17156,11 +17244,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17178,7 +17266,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17187,21 +17275,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17224,15 +17312,17 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17281,7 +17371,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17290,21 +17380,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17327,16 +17417,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17386,7 +17476,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17395,10 +17485,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:56:36+00:00</t>
+    <t>2024-12-03T16:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -438,8 +434,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -496,16 +492,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -542,9 +528,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -552,9 +535,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -573,8 +553,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -632,8 +615,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -689,8 +672,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -744,9 +727,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -774,8 +754,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1001,7 +981,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -1014,6 +994,13 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1333,13 +1320,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1520,13 +1500,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1794,14 +1767,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1809,9 +1774,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2183,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -2191,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
@@ -2207,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
@@ -2215,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
@@ -2269,7 +2231,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
@@ -2305,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -2313,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -2803,10 +2765,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2814,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2840,16 +2802,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2899,7 +2861,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2908,10 +2870,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2919,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2945,16 +2907,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2980,32 +2942,32 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
@@ -3013,10 +2975,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -3024,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3050,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3109,7 +3071,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3118,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3129,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3155,16 +3117,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3175,29 +3137,29 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
       </c>
@@ -3214,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3223,10 +3185,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3234,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3260,16 +3222,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3319,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3328,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3339,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3365,16 +3327,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3424,7 +3386,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3433,10 +3395,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3444,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3470,16 +3432,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3529,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3538,10 +3500,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3549,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3575,13 +3537,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3632,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3652,14 +3614,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3678,16 +3640,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3725,19 +3687,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3746,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3757,14 +3719,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3783,19 +3745,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3844,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3853,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3864,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3890,17 +3852,15 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3949,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3958,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3969,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3995,17 +3955,15 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4054,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4063,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4074,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4100,13 +4058,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4145,19 +4103,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -4177,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4203,13 +4161,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4260,7 +4218,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4280,14 +4238,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4306,16 +4264,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4353,19 +4311,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4374,10 +4332,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -4385,14 +4343,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4411,19 +4369,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4472,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4481,10 +4439,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
@@ -4492,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4521,10 +4479,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4575,7 +4533,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4587,7 +4545,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -4595,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4621,16 +4579,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4680,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4689,10 +4647,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4700,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4726,13 +4684,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4783,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4803,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4829,13 +4787,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4886,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4895,10 +4853,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4906,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4932,13 +4890,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4989,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -5009,14 +4967,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5035,16 +4993,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5082,19 +5040,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5103,10 +5061,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -5114,14 +5072,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5140,19 +5098,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5201,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5210,10 +5168,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -5221,10 +5179,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5247,16 +5205,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5282,13 +5240,13 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>75</v>
@@ -5306,7 +5264,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -5315,10 +5273,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5326,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5352,16 +5310,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5411,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5420,10 +5378,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5431,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5457,13 +5415,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5514,7 +5472,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5523,10 +5481,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -5534,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5560,13 +5518,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5617,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5637,14 +5595,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5663,16 +5621,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5710,19 +5668,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5731,10 +5689,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -5742,14 +5700,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5768,19 +5726,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5829,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5838,10 +5796,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -5849,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5875,17 +5833,15 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5910,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5934,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5943,10 +5899,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5954,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5980,16 +5936,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6039,7 +5995,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6048,10 +6004,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6059,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6085,17 +6041,15 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6144,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6153,10 +6107,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6164,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6190,17 +6144,15 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6258,10 +6210,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6269,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6295,17 +6247,15 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6354,7 +6304,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6363,10 +6313,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6374,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6400,17 +6350,15 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6459,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6468,10 +6416,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6479,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6505,13 +6453,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6562,7 +6510,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6571,10 +6519,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -6582,10 +6530,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6608,13 +6556,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6665,7 +6613,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6685,14 +6633,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6711,16 +6659,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6758,19 +6706,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6779,10 +6727,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -6790,14 +6738,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6816,19 +6764,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6877,7 +6825,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6886,10 +6834,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -6897,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6923,17 +6871,15 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6982,7 +6928,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6991,10 +6937,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -7002,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7028,17 +6974,15 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7087,7 +7031,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7096,10 +7040,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7107,10 +7051,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7133,16 +7077,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7192,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7201,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7212,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7238,16 +7182,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7297,7 +7241,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7306,10 +7250,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7317,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7343,16 +7287,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7402,7 +7346,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7422,13 +7366,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7450,13 +7394,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7507,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7516,10 +7460,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
@@ -7527,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7553,13 +7497,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7610,7 +7554,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7630,14 +7574,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7656,16 +7600,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7703,19 +7647,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7724,10 +7668,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -7735,14 +7679,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7761,19 +7705,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7822,7 +7766,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7831,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -7842,10 +7786,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7871,10 +7815,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7925,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7937,7 +7881,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -7945,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7971,16 +7915,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8030,7 +7974,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8039,10 +7983,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -8050,10 +7994,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8076,16 +8020,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8135,7 +8079,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8155,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8181,13 +8125,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8238,7 +8182,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8247,10 +8191,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8258,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8284,13 +8228,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8341,7 +8285,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8361,14 +8305,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8387,16 +8331,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8434,19 +8378,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8455,10 +8399,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -8466,14 +8410,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8492,19 +8436,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8553,7 +8497,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8562,10 +8506,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -8573,10 +8517,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8599,16 +8543,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8634,13 +8578,13 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>75</v>
@@ -8658,7 +8602,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8667,10 +8611,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8678,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8704,16 +8648,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8763,7 +8707,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8772,10 +8716,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8783,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8809,13 +8753,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8866,7 +8810,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8875,10 +8819,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -8886,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8912,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8969,7 +8913,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8989,14 +8933,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9015,16 +8959,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9062,19 +9006,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9083,10 +9027,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -9094,14 +9038,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9120,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9181,7 +9125,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9190,10 +9134,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -9201,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9227,17 +9171,15 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9247,7 +9189,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9262,13 +9204,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9286,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9295,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9306,10 +9248,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9332,16 +9274,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9391,7 +9333,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9400,10 +9342,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9411,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9437,17 +9379,15 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9496,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9505,10 +9445,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9516,10 +9456,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9542,17 +9482,15 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9601,7 +9539,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9610,10 +9548,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9621,10 +9559,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9647,17 +9585,15 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9706,7 +9642,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9715,10 +9651,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9726,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9752,17 +9688,15 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9811,7 +9745,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9820,10 +9754,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9831,10 +9765,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9857,13 +9791,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9914,7 +9848,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9923,10 +9857,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -9934,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9960,13 +9894,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10017,7 +9951,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10037,14 +9971,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10063,16 +9997,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10110,19 +10044,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10131,10 +10065,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -10142,14 +10076,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10168,19 +10102,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10238,10 +10172,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
@@ -10249,10 +10183,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10275,17 +10209,15 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10334,7 +10266,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10343,10 +10275,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10354,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10380,17 +10312,15 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10439,7 +10369,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10448,10 +10378,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10459,10 +10389,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10485,16 +10415,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10544,7 +10474,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10553,10 +10483,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10564,10 +10494,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10590,16 +10520,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10649,7 +10579,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10658,10 +10588,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10669,10 +10599,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10695,16 +10625,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10754,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10774,10 +10704,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10800,19 +10730,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10861,7 +10791,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10870,21 +10800,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10910,13 +10840,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10966,7 +10896,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10978,18 +10908,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11088,13 +11018,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11183,21 +11113,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11220,13 +11150,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11277,7 +11207,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11294,17 +11224,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11323,16 +11253,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11370,19 +11300,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11391,21 +11321,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11431,13 +11361,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11487,7 +11417,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11496,21 +11426,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11533,16 +11463,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11592,7 +11522,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11601,21 +11531,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11638,16 +11568,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11697,7 +11627,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11706,21 +11636,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11743,16 +11673,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11802,7 +11732,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11811,21 +11741,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11848,16 +11778,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11883,13 +11813,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11907,7 +11837,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11916,21 +11846,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11953,16 +11883,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11988,13 +11918,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -12012,7 +11942,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12021,21 +11951,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12058,16 +11988,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12117,7 +12047,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12126,21 +12056,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12163,16 +12093,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12198,32 +12128,32 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z94" t="s" s="2">
+      <c r="AA94" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA94" t="s" s="2">
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12231,25 +12161,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12268,16 +12198,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12327,7 +12257,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12336,25 +12266,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12373,16 +12303,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12432,7 +12362,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12449,17 +12379,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12478,16 +12408,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12525,19 +12455,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12546,21 +12476,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12583,13 +12513,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12628,19 +12558,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12649,21 +12579,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12686,19 +12616,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12747,7 +12677,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12756,21 +12686,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12793,13 +12723,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12850,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12859,21 +12789,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12896,16 +12826,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12916,7 +12846,7 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>75</v>
@@ -12931,13 +12861,13 @@
         <v>75</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>75</v>
@@ -12955,7 +12885,7 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -12964,21 +12894,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13001,16 +12931,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13036,13 +12966,13 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>75</v>
@@ -13060,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13069,21 +12999,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13106,16 +13036,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13141,11 +13071,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13163,7 +13093,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13172,25 +13102,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13209,16 +13139,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13244,11 +13174,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13266,7 +13196,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13275,21 +13205,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13312,17 +13242,15 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13371,7 +13299,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13380,25 +13308,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13417,16 +13345,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13476,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13485,21 +13413,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13522,16 +13450,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13581,7 +13509,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13590,21 +13518,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13627,16 +13555,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13686,7 +13614,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13695,21 +13623,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13732,16 +13660,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13791,7 +13719,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13800,21 +13728,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13837,16 +13765,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13896,7 +13824,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13905,21 +13833,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13942,13 +13870,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13999,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -14016,17 +13944,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -14045,16 +13973,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14092,19 +14020,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14113,25 +14041,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14150,19 +14078,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14211,7 +14139,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14220,21 +14148,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14257,16 +14185,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14292,13 +14220,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14316,7 +14244,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14325,21 +14253,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14362,17 +14290,15 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14421,7 +14347,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14430,21 +14356,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14467,19 +14393,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14528,7 +14454,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14537,21 +14463,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14574,19 +14500,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14611,13 +14537,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14635,7 +14561,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14644,21 +14570,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14681,13 +14607,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14738,7 +14664,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14747,21 +14673,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14784,13 +14710,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14841,7 +14767,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14858,17 +14784,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14887,16 +14813,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14934,19 +14860,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14955,25 +14881,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14992,19 +14918,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -15053,7 +14979,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15062,21 +14988,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15099,17 +15025,15 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15158,7 +15082,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15167,21 +15091,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15204,13 +15128,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15261,7 +15185,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15278,17 +15202,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15307,16 +15231,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15354,19 +15278,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15375,21 +15299,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15412,19 +15336,17 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15437,7 +15359,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15449,13 +15371,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15473,7 +15395,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15482,21 +15404,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15519,19 +15441,17 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15544,7 +15464,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15556,14 +15476,14 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z126" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z126" t="s" s="2">
+      <c r="AA126" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
       </c>
@@ -15580,7 +15500,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15589,21 +15509,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15626,19 +15546,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15687,7 +15607,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15696,21 +15616,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK127" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15733,19 +15653,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15758,7 +15678,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15794,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15803,21 +15723,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15840,19 +15760,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15901,7 +15821,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15910,21 +15830,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15947,19 +15867,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -16008,7 +15928,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16017,21 +15937,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16054,19 +15974,17 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16079,7 +15997,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16115,7 +16033,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16124,21 +16042,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16161,17 +16079,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16220,7 +16138,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16229,21 +16147,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16266,16 +16184,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16301,11 +16219,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16323,7 +16241,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16332,21 +16250,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16369,16 +16287,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16428,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16437,21 +16355,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16474,13 +16392,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16531,7 +16449,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16548,17 +16466,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16577,16 +16495,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16624,19 +16542,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16645,25 +16563,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16682,19 +16600,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16743,7 +16661,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16752,21 +16670,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16789,17 +16707,15 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16848,7 +16764,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16857,21 +16773,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16894,16 +16810,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16929,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16953,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16962,21 +16878,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16999,17 +16915,15 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -17058,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17067,21 +16981,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17104,17 +17018,15 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17139,11 +17051,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17161,7 +17073,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17170,21 +17082,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17207,19 +17119,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17244,11 +17156,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17266,7 +17178,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17275,21 +17187,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17312,17 +17224,15 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17371,7 +17281,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17380,21 +17290,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17417,16 +17327,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17476,7 +17386,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17485,10 +17395,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:19:25+00:00</t>
+    <t>2024-12-17T16:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:29:54+00:00</t>
+    <t>2024-12-17T16:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:40:19+00:00</t>
+    <t>2024-12-20T14:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-20T14:27:39+00:00</t>
+    <t>2025-01-13T12:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T12:56:04+00:00</t>
+    <t>2025-01-16T11:13:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T11:13:06+00:00</t>
+    <t>2025-01-20T08:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:56:25+00:00</t>
+    <t>2025-01-24T10:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:56:25+00:00</t>
+    <t>2025-01-31T09:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:33:55+00:00</t>
+    <t>2025-01-31T09:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:56:25+00:00</t>
+    <t>2025-01-31T11:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T11:34:31+00:00</t>
+    <t>2025-01-31T14:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:09:56+00:00</t>
+    <t>2025-01-31T14:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:17:20+00:00</t>
+    <t>2025-01-31T14:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:23:20+00:00</t>
+    <t>2025-01-31T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:32:14+00:00</t>
+    <t>2025-01-31T14:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:45:45+00:00</t>
+    <t>2025-02-05T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:48:42+00:00</t>
+    <t>2025-02-06T11:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T11:04:53+00:00</t>
+    <t>2025-02-12T14:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T14:10:39+00:00</t>
+    <t>2025-02-17T08:44:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T08:44:40+00:00</t>
+    <t>2025-02-17T10:37:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T10:37:22+00:00</t>
+    <t>2025-02-19T16:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
